--- a/data/league_data/france/21/france_possession.xlsx
+++ b/data/league_data/france/21/france_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13BA0C3-504D-6848-99C4-22A160B2689F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6911A-7FDF-1C4A-999C-F0E3548B8FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,9 +349,6 @@
     <t>Leo Dubois</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1862,6 +1859,9 @@
   </si>
   <si>
     <t>Dion Moise Sahi</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
@@ -2731,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6587,10 +6587,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>41</v>
@@ -6685,7 +6685,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>35</v>
@@ -6783,7 +6783,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>106</v>
@@ -6881,7 +6881,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>58</v>
@@ -6979,7 +6979,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
@@ -7077,7 +7077,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>76</v>
@@ -7175,7 +7175,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>35</v>
@@ -7273,7 +7273,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -7371,7 +7371,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>35</v>
@@ -7469,7 +7469,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>35</v>
@@ -7567,10 +7567,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>41</v>
@@ -7665,7 +7665,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -7763,7 +7763,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>82</v>
@@ -7861,10 +7861,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>41</v>
@@ -7959,10 +7959,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>91</v>
@@ -8057,7 +8057,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>35</v>
@@ -8155,7 +8155,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>35</v>
@@ -8253,7 +8253,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>70</v>
@@ -8351,7 +8351,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>35</v>
@@ -8449,10 +8449,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>72</v>
@@ -8547,7 +8547,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>35</v>
@@ -8645,7 +8645,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>35</v>
@@ -8743,7 +8743,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>82</v>
@@ -8841,7 +8841,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>35</v>
@@ -8939,7 +8939,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>40</v>
@@ -9037,7 +9037,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>35</v>
@@ -9135,7 +9135,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>96</v>
@@ -9233,7 +9233,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>35</v>
@@ -9331,10 +9331,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>91</v>
@@ -9429,10 +9429,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>32</v>
@@ -9527,10 +9527,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>72</v>
@@ -9625,7 +9625,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>35</v>
@@ -9723,13 +9723,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>44</v>
@@ -9821,10 +9821,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>41</v>
@@ -9919,7 +9919,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>35</v>
@@ -10017,7 +10017,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>94</v>
@@ -10115,7 +10115,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>35</v>
@@ -10213,7 +10213,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>35</v>
@@ -10311,7 +10311,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>35</v>
@@ -10409,7 +10409,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>35</v>
@@ -10507,7 +10507,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>58</v>
@@ -10605,7 +10605,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>40</v>
@@ -10703,7 +10703,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>96</v>
@@ -10801,7 +10801,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>35</v>
@@ -10897,10 +10897,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>84</v>
@@ -10995,7 +10995,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>35</v>
@@ -11093,7 +11093,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>35</v>
@@ -11191,7 +11191,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>35</v>
@@ -11289,13 +11289,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>100</v>
@@ -11387,7 +11387,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>35</v>
@@ -11485,7 +11485,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>35</v>
@@ -11583,7 +11583,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>35</v>
@@ -11679,16 +11679,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F92" s="4">
         <v>33</v>
@@ -11777,10 +11777,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>72</v>
@@ -11875,10 +11875,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>41</v>
@@ -11973,7 +11973,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>82</v>
@@ -12071,7 +12071,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>35</v>
@@ -12169,13 +12169,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>47</v>
@@ -12267,13 +12267,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>68</v>
@@ -12365,10 +12365,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>84</v>
@@ -12463,7 +12463,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>35</v>
@@ -12561,7 +12561,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>35</v>
@@ -12659,7 +12659,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>35</v>
@@ -12757,7 +12757,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>35</v>
@@ -12855,7 +12855,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>35</v>
@@ -12953,7 +12953,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>35</v>
@@ -13051,10 +13051,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>87</v>
@@ -13149,10 +13149,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>41</v>
@@ -13247,10 +13247,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>41</v>
@@ -13345,7 +13345,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>35</v>
@@ -13443,7 +13443,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>35</v>
@@ -13452,7 +13452,7 @@
         <v>91</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F110" s="4">
         <v>21</v>
@@ -13541,10 +13541,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>41</v>
@@ -13639,10 +13639,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>91</v>
@@ -13737,7 +13737,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>35</v>
@@ -13835,10 +13835,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>41</v>
@@ -13933,7 +13933,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>106</v>
@@ -14031,10 +14031,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>72</v>
@@ -14129,7 +14129,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>58</v>
@@ -14227,7 +14227,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>96</v>
@@ -14325,7 +14325,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>35</v>
@@ -14423,7 +14423,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>35</v>
@@ -14432,7 +14432,7 @@
         <v>41</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F120" s="4">
         <v>24</v>
@@ -14521,7 +14521,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>35</v>
@@ -14619,10 +14619,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>41</v>
@@ -14717,7 +14717,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>35</v>
@@ -14815,10 +14815,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>87</v>
@@ -14913,10 +14913,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>84</v>
@@ -15011,10 +15011,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>41</v>
@@ -15109,10 +15109,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>84</v>
@@ -15207,7 +15207,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>35</v>
@@ -15305,7 +15305,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>35</v>
@@ -15403,13 +15403,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="D130" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>102</v>
@@ -15501,10 +15501,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>84</v>
@@ -15599,10 +15599,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>84</v>
@@ -15697,7 +15697,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>70</v>
@@ -15795,13 +15795,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>85</v>
@@ -15893,7 +15893,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>96</v>
@@ -15991,7 +15991,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>35</v>
@@ -16089,7 +16089,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>35</v>
@@ -16187,7 +16187,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>35</v>
@@ -16285,7 +16285,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>35</v>
@@ -16383,7 +16383,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>35</v>
@@ -16481,10 +16481,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>41</v>
@@ -16579,7 +16579,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>35</v>
@@ -16677,10 +16677,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>32</v>
@@ -16775,10 +16775,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>91</v>
@@ -16873,7 +16873,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>96</v>
@@ -16971,7 +16971,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>35</v>
@@ -17069,7 +17069,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>94</v>
@@ -17167,10 +17167,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>41</v>
@@ -17265,16 +17265,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F149" s="4">
         <v>26</v>
@@ -17363,10 +17363,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>41</v>
@@ -17461,7 +17461,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>35</v>
@@ -17559,7 +17559,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>35</v>
@@ -17657,10 +17657,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>41</v>
@@ -17755,7 +17755,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>35</v>
@@ -17853,7 +17853,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>35</v>
@@ -17951,10 +17951,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>91</v>
@@ -18049,7 +18049,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>35</v>
@@ -18145,7 +18145,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>35</v>
@@ -18243,7 +18243,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>35</v>
@@ -18341,7 +18341,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>35</v>
@@ -18439,10 +18439,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>91</v>
@@ -18537,10 +18537,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>84</v>
@@ -18635,7 +18635,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>35</v>
@@ -18733,10 +18733,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>72</v>
@@ -18831,10 +18831,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>41</v>
@@ -18929,7 +18929,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>35</v>
@@ -19027,7 +19027,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>35</v>
@@ -19125,7 +19125,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>35</v>
@@ -19223,7 +19223,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>35</v>
@@ -19321,10 +19321,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>91</v>
@@ -19419,7 +19419,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>31</v>
@@ -19517,7 +19517,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>106</v>
@@ -19613,7 +19613,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>35</v>
@@ -19711,7 +19711,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>94</v>
@@ -19809,13 +19809,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>77</v>
@@ -19907,10 +19907,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>41</v>
@@ -20005,7 +20005,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>94</v>
@@ -20103,7 +20103,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>35</v>
@@ -20201,10 +20201,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>91</v>
@@ -20299,10 +20299,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>65</v>
@@ -20397,7 +20397,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>35</v>
@@ -20495,7 +20495,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>35</v>
@@ -20593,10 +20593,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>32</v>
@@ -20691,7 +20691,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>35</v>
@@ -20789,7 +20789,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>35</v>
@@ -20887,7 +20887,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>31</v>
@@ -20896,7 +20896,7 @@
         <v>72</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F186" s="4">
         <v>32</v>
@@ -20985,16 +20985,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F187" s="4">
         <v>30</v>
@@ -21083,7 +21083,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>35</v>
@@ -21181,7 +21181,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>35</v>
@@ -21279,7 +21279,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>35</v>
@@ -21377,10 +21377,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>87</v>
@@ -21475,10 +21475,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>41</v>
@@ -21573,7 +21573,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>35</v>
@@ -21671,7 +21671,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>35</v>
@@ -21769,7 +21769,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>35</v>
@@ -21867,7 +21867,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>46</v>
@@ -21965,7 +21965,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>35</v>
@@ -22063,7 +22063,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>35</v>
@@ -22161,7 +22161,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>35</v>
@@ -22259,7 +22259,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>35</v>
@@ -22357,7 +22357,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>35</v>
@@ -22455,10 +22455,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>84</v>
@@ -22553,7 +22553,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>106</v>
@@ -22651,7 +22651,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>35</v>
@@ -22749,7 +22749,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>82</v>
@@ -22847,7 +22847,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>35</v>
@@ -22945,7 +22945,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>35</v>
@@ -23043,7 +23043,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>35</v>
@@ -23141,16 +23141,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F209" s="4">
         <v>20</v>
@@ -23239,7 +23239,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>94</v>
@@ -23337,7 +23337,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>61</v>
@@ -23346,7 +23346,7 @@
         <v>41</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F211" s="4">
         <v>20</v>
@@ -23435,7 +23435,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>94</v>
@@ -23533,7 +23533,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>35</v>
@@ -23631,7 +23631,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>35</v>
@@ -23729,7 +23729,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>96</v>
@@ -23827,10 +23827,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>84</v>
@@ -23925,7 +23925,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>31</v>
@@ -24023,7 +24023,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>35</v>
@@ -24121,7 +24121,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>35</v>
@@ -24219,7 +24219,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>46</v>
@@ -24317,10 +24317,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>91</v>
@@ -24415,7 +24415,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>76</v>
@@ -24513,16 +24513,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F223" s="4">
         <v>23</v>
@@ -24611,7 +24611,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>35</v>
@@ -24709,10 +24709,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>65</v>
@@ -24807,7 +24807,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>35</v>
@@ -24905,7 +24905,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>35</v>
@@ -25003,7 +25003,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>106</v>
@@ -25101,10 +25101,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>41</v>
@@ -25199,7 +25199,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>106</v>
@@ -25208,7 +25208,7 @@
         <v>84</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F230" s="4">
         <v>30</v>
@@ -25297,7 +25297,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>31</v>
@@ -25395,7 +25395,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>35</v>
@@ -25493,7 +25493,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>35</v>
@@ -25591,10 +25591,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>41</v>
@@ -25689,10 +25689,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>84</v>
@@ -25787,7 +25787,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>46</v>
@@ -25885,16 +25885,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F237" s="4">
         <v>29</v>
@@ -25983,7 +25983,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>35</v>
@@ -26081,7 +26081,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>35</v>
@@ -26179,7 +26179,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>35</v>
@@ -26277,10 +26277,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>41</v>
@@ -26375,10 +26375,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>84</v>
@@ -26473,7 +26473,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>106</v>
@@ -26482,7 +26482,7 @@
         <v>41</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F243" s="4">
         <v>24</v>
@@ -26571,7 +26571,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>35</v>
@@ -26669,16 +26669,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F245" s="4">
         <v>27</v>
@@ -26767,7 +26767,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>35</v>
@@ -26865,10 +26865,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>41</v>
@@ -26963,10 +26963,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>41</v>
@@ -27061,7 +27061,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>46</v>
@@ -27159,7 +27159,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>106</v>
@@ -27257,10 +27257,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>41</v>
@@ -27355,7 +27355,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>35</v>
@@ -27453,7 +27453,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>46</v>
@@ -27462,7 +27462,7 @@
         <v>65</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F253" s="4">
         <v>28</v>
@@ -27551,16 +27551,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F254" s="4">
         <v>28</v>
@@ -27649,10 +27649,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>41</v>
@@ -27747,7 +27747,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>35</v>
@@ -27845,7 +27845,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>35</v>
@@ -27943,7 +27943,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>35</v>
@@ -28041,7 +28041,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>35</v>
@@ -28050,7 +28050,7 @@
         <v>41</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F259" s="4">
         <v>21</v>
@@ -28139,16 +28139,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F260" s="4">
         <v>27</v>
@@ -28237,7 +28237,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>96</v>
@@ -28335,7 +28335,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>35</v>
@@ -28431,7 +28431,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>35</v>
@@ -28527,7 +28527,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>35</v>
@@ -28625,7 +28625,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>35</v>
@@ -28723,7 +28723,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>82</v>
@@ -28821,7 +28821,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>35</v>
@@ -28919,16 +28919,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F268" s="4">
         <v>28</v>
@@ -29017,7 +29017,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>35</v>
@@ -29115,10 +29115,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>41</v>
@@ -29213,10 +29213,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>91</v>
@@ -29311,7 +29311,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>31</v>
@@ -29320,7 +29320,7 @@
         <v>84</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F272" s="4">
         <v>26</v>
@@ -29409,7 +29409,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>35</v>
@@ -29507,7 +29507,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>35</v>
@@ -29605,10 +29605,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>87</v>
@@ -29703,7 +29703,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>35</v>
@@ -29712,7 +29712,7 @@
         <v>41</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F276" s="4">
         <v>27</v>
@@ -29801,7 +29801,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>46</v>
@@ -29899,7 +29899,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>106</v>
@@ -29997,10 +29997,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>41</v>
@@ -30095,7 +30095,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>106</v>
@@ -30193,7 +30193,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>35</v>
@@ -30291,7 +30291,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>94</v>
@@ -30389,7 +30389,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>35</v>
@@ -30487,7 +30487,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>35</v>
@@ -30585,7 +30585,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>35</v>
@@ -30683,7 +30683,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>35</v>
@@ -30781,10 +30781,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C287" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>91</v>
@@ -30879,7 +30879,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>35</v>
@@ -30977,7 +30977,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>35</v>
@@ -31075,7 +31075,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>35</v>
@@ -31173,7 +31173,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>106</v>
@@ -31271,7 +31271,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>46</v>
@@ -31369,7 +31369,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>82</v>
@@ -31467,7 +31467,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>53</v>
@@ -31565,7 +31565,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>35</v>
@@ -31663,7 +31663,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>35</v>
@@ -31761,7 +31761,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>35</v>
@@ -31859,7 +31859,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>35</v>
@@ -31957,7 +31957,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>96</v>
@@ -32055,7 +32055,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>106</v>
@@ -32153,7 +32153,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>35</v>
@@ -32251,7 +32251,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>35</v>
@@ -32349,7 +32349,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>35</v>
@@ -32447,10 +32447,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>41</v>
@@ -32545,10 +32545,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>41</v>
@@ -32641,7 +32641,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>106</v>
@@ -32739,10 +32739,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>72</v>
@@ -32837,10 +32837,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>32</v>
@@ -32935,7 +32935,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>35</v>
@@ -33033,7 +33033,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>31</v>
@@ -33042,7 +33042,7 @@
         <v>91</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F310" s="4">
         <v>27</v>
@@ -33131,7 +33131,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>35</v>
@@ -33229,10 +33229,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>41</v>
@@ -33325,7 +33325,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>94</v>
@@ -33423,10 +33423,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C314" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>87</v>
@@ -33521,16 +33521,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F315" s="4">
         <v>26</v>
@@ -33619,7 +33619,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>35</v>
@@ -33717,10 +33717,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>41</v>
@@ -33815,7 +33815,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>96</v>
@@ -33913,7 +33913,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>35</v>
@@ -34011,7 +34011,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>35</v>
@@ -34109,7 +34109,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>35</v>
@@ -34207,7 +34207,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>58</v>
@@ -34305,10 +34305,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>84</v>
@@ -34403,7 +34403,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>106</v>
@@ -34501,10 +34501,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>41</v>
@@ -34599,7 +34599,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>94</v>
@@ -34697,7 +34697,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>35</v>
@@ -34795,10 +34795,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>72</v>
@@ -34893,10 +34893,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>91</v>
@@ -34991,10 +34991,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>72</v>
@@ -35089,13 +35089,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E331" s="4" t="s">
         <v>33</v>
@@ -35187,7 +35187,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>35</v>
@@ -35285,7 +35285,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>35</v>
@@ -35383,7 +35383,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>35</v>
@@ -35481,7 +35481,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>35</v>
@@ -35579,7 +35579,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>35</v>
@@ -35677,7 +35677,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>35</v>
@@ -35775,7 +35775,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>35</v>
@@ -35873,10 +35873,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>84</v>
@@ -35971,7 +35971,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>94</v>
@@ -36069,10 +36069,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C341" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>72</v>
@@ -36167,7 +36167,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>46</v>
@@ -36265,10 +36265,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>84</v>
@@ -36363,7 +36363,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>35</v>
@@ -36461,7 +36461,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>35</v>
@@ -36559,7 +36559,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>35</v>
@@ -36657,7 +36657,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>96</v>
@@ -36755,7 +36755,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>35</v>
@@ -36853,7 +36853,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>35</v>
@@ -36951,7 +36951,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>35</v>
@@ -37049,7 +37049,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>35</v>
@@ -37147,10 +37147,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>32</v>
@@ -37243,16 +37243,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F353" s="4">
         <v>26</v>
@@ -37339,7 +37339,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>76</v>
@@ -37437,10 +37437,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C355" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>72</v>
@@ -37535,10 +37535,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>91</v>
@@ -37633,10 +37633,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>41</v>
@@ -37729,10 +37729,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>87</v>
@@ -37827,7 +37827,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>35</v>
@@ -37925,7 +37925,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>35</v>
@@ -38021,10 +38021,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C361" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>41</v>
@@ -38119,13 +38119,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E362" s="4" t="s">
         <v>66</v>
@@ -38217,7 +38217,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>76</v>
@@ -38315,7 +38315,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>35</v>
@@ -38411,7 +38411,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>106</v>
@@ -38507,10 +38507,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>41</v>
@@ -38605,7 +38605,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>96</v>
@@ -38703,10 +38703,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>41</v>
@@ -38801,7 +38801,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>35</v>
@@ -38899,10 +38899,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>87</v>
@@ -38997,7 +38997,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>35</v>
@@ -39095,13 +39095,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E372" s="4" t="s">
         <v>56</v>
@@ -39193,7 +39193,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>106</v>
@@ -39291,7 +39291,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>106</v>
@@ -39389,7 +39389,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>82</v>
@@ -39487,7 +39487,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>35</v>
@@ -39585,7 +39585,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>35</v>
@@ -39683,7 +39683,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>61</v>
@@ -39781,7 +39781,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>53</v>
@@ -39879,7 +39879,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>35</v>
@@ -39977,7 +39977,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>35</v>
@@ -40075,7 +40075,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>35</v>
@@ -40173,7 +40173,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>35</v>
@@ -40271,7 +40271,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>82</v>
@@ -40369,7 +40369,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>35</v>
@@ -40467,7 +40467,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>35</v>
@@ -40565,7 +40565,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>35</v>
@@ -40663,10 +40663,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C388" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>72</v>
@@ -40761,10 +40761,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>41</v>
@@ -40859,7 +40859,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>35</v>
@@ -40957,7 +40957,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>89</v>
@@ -41055,10 +41055,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>72</v>
@@ -41153,7 +41153,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>35</v>
@@ -41251,7 +41251,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>35</v>
@@ -41347,7 +41347,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>58</v>
@@ -41443,10 +41443,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C396" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>72</v>
@@ -41541,10 +41541,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>510</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>91</v>
@@ -41639,7 +41639,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>35</v>
@@ -41737,10 +41737,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>41</v>
@@ -41833,7 +41833,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>35</v>
@@ -41931,7 +41931,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>58</v>
@@ -42029,7 +42029,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>35</v>
@@ -42127,7 +42127,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>35</v>
@@ -42225,7 +42225,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>35</v>
@@ -42323,7 +42323,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>35</v>
@@ -42421,7 +42421,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>35</v>
@@ -42519,7 +42519,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>106</v>
@@ -42617,10 +42617,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C408" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>84</v>
@@ -42715,7 +42715,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>106</v>
@@ -42811,7 +42811,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>35</v>
@@ -42909,7 +42909,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>35</v>
@@ -43007,7 +43007,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>94</v>
@@ -43105,7 +43105,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>106</v>
@@ -43203,7 +43203,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>82</v>
@@ -43301,7 +43301,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>82</v>
@@ -43399,10 +43399,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>72</v>
@@ -43497,7 +43497,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>70</v>
@@ -43595,7 +43595,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>106</v>
@@ -43693,7 +43693,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>35</v>
@@ -43702,7 +43702,7 @@
         <v>41</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F419" s="4">
         <v>17</v>
@@ -43791,10 +43791,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>41</v>
@@ -43889,7 +43889,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>35</v>
@@ -43985,7 +43985,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>35</v>
@@ -44083,10 +44083,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>87</v>
@@ -44181,7 +44181,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>58</v>
@@ -44279,7 +44279,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>35</v>
@@ -44377,10 +44377,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>84</v>
@@ -44475,10 +44475,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>41</v>
@@ -44573,7 +44573,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>35</v>
@@ -44671,7 +44671,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>94</v>
@@ -44769,10 +44769,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>41</v>
@@ -44865,7 +44865,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>35</v>
@@ -44963,10 +44963,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>87</v>
@@ -45061,7 +45061,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>58</v>
@@ -45159,7 +45159,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>35</v>
@@ -45257,7 +45257,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>35</v>
@@ -45355,7 +45355,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>35</v>
@@ -45453,13 +45453,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>56</v>
@@ -45551,7 +45551,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>35</v>
@@ -45649,7 +45649,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>82</v>
@@ -45747,13 +45747,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C440" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>554</v>
-      </c>
       <c r="D440" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>79</v>
@@ -45845,7 +45845,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>35</v>
@@ -45943,7 +45943,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>35</v>
@@ -46041,7 +46041,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>35</v>
@@ -46139,10 +46139,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C444" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>41</v>
@@ -46237,7 +46237,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>35</v>
@@ -46335,7 +46335,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>35</v>
@@ -46431,7 +46431,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>35</v>
@@ -46529,10 +46529,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>41</v>
@@ -46627,10 +46627,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>84</v>
@@ -46725,7 +46725,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>106</v>
@@ -46823,7 +46823,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>46</v>
@@ -46921,7 +46921,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>35</v>
@@ -47019,10 +47019,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>72</v>
@@ -47117,7 +47117,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>70</v>
@@ -47215,7 +47215,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>61</v>
@@ -47313,7 +47313,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>35</v>
@@ -47411,7 +47411,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>35</v>
@@ -47509,7 +47509,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>35</v>
@@ -47607,16 +47607,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F459" s="4">
         <v>27</v>
@@ -47705,7 +47705,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>35</v>
@@ -47803,7 +47803,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>35</v>
@@ -47901,7 +47901,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>35</v>
@@ -47999,7 +47999,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>35</v>
@@ -48097,10 +48097,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>41</v>
@@ -48193,7 +48193,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>76</v>
@@ -48202,7 +48202,7 @@
         <v>72</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F465" s="4">
         <v>17</v>
@@ -48291,7 +48291,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>35</v>
@@ -48389,10 +48389,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>84</v>
@@ -48487,7 +48487,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>35</v>
@@ -48585,7 +48585,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>46</v>
@@ -48683,7 +48683,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>82</v>
@@ -48779,10 +48779,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D471" s="4" t="s">
         <v>41</v>
@@ -48877,7 +48877,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>35</v>
@@ -48975,7 +48975,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>106</v>
@@ -49073,10 +49073,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>91</v>
@@ -49171,7 +49171,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>35</v>
@@ -49267,7 +49267,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>35</v>
@@ -49365,7 +49365,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>35</v>
@@ -49463,7 +49463,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>35</v>
@@ -49559,7 +49559,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>35</v>
@@ -49657,13 +49657,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>56</v>
@@ -49755,7 +49755,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>35</v>
@@ -49853,7 +49853,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>35</v>
@@ -49951,7 +49951,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>35</v>
@@ -50047,7 +50047,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>82</v>
@@ -50145,13 +50145,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E485" s="4" t="s">
         <v>42</v>
@@ -50243,13 +50243,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E486" s="4" t="s">
         <v>42</v>
@@ -50341,7 +50341,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>35</v>
@@ -50439,10 +50439,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C488" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>32</v>
@@ -50535,7 +50535,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>35</v>
@@ -50633,10 +50633,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>84</v>
@@ -50731,7 +50731,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>35</v>
@@ -50829,7 +50829,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>35</v>
@@ -50925,10 +50925,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>41</v>
@@ -51021,13 +51021,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E494" s="4" t="s">
         <v>85</v>
@@ -51119,16 +51119,16 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E495" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F495" s="4">
         <v>20</v>
@@ -51215,7 +51215,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>35</v>
@@ -51313,7 +51313,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>35</v>
@@ -51411,10 +51411,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D498" s="4" t="s">
         <v>32</v>
@@ -51507,7 +51507,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>106</v>
@@ -51603,7 +51603,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>96</v>
